--- a/Raw/Attributes_2023.xlsx
+++ b/Raw/Attributes_2023.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://moddex-my.sharepoint.com/personal/clancy_lewis_moddex_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClancyLewisModdex\Desktop\tekla-structures-attributes\Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{B0E8E0BB-3D69-48BB-9ECC-E7A62C274944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76A1AC74-BFA0-4178-8F17-221B76BF5D50}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C342FF-088C-4E67-B5C4-28B4648C2421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{55098CAD-1C52-4F91-A0C1-816798C177D0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
-    <sheet name="CMM Assembly" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -20576,16 +20575,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A011C660-C6D8-4DE6-9C65-0D2B1685C6F2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>